--- a/data/input/guideForParameterInput.xlsx
+++ b/data/input/guideForParameterInput.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18315" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="20480"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="List" sheetId="2" r:id="rId1"/>
+    <sheet name="Weathering" sheetId="3" r:id="rId2"/>
+    <sheet name="Uplift" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="177">
   <si>
     <t>[m/Myr]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,24 +97,498 @@
   <si>
     <t>Guide for determining parameter values</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTPUT_SUBDIR</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>dX</t>
+  </si>
+  <si>
+    <t>PLANE_ANGLE</t>
+  </si>
+  <si>
+    <t>[m]</t>
+  </si>
+  <si>
+    <t>[°]</t>
+  </si>
+  <si>
+    <t>INIT_BEDROCK_ELEV_FILE</t>
+  </si>
+  <si>
+    <t>initSedThick</t>
+  </si>
+  <si>
+    <t>INIT_SED_THICK_FILE</t>
+  </si>
+  <si>
+    <t>TIME_STEPS_NO</t>
+  </si>
+  <si>
+    <t>INIT_TIME_STEP_NO</t>
+  </si>
+  <si>
+    <t>dT</t>
+  </si>
+  <si>
+    <t>[year]</t>
+  </si>
+  <si>
+    <t>BOUNDARY_OUTFLOW_COND</t>
+  </si>
+  <si>
+    <t>TOP_BOUNDARY_ELEV_COND</t>
+  </si>
+  <si>
+    <t>IS_LEFT_RIGHT_CONNECTED</t>
+  </si>
+  <si>
+    <t>TOTAL_ACCUMULATED_UPLIFT</t>
+  </si>
+  <si>
+    <t>IS_TILTED_UPWARPING</t>
+  </si>
+  <si>
+    <t>UPLIFT_AXIS_DISTANCE_FROM_COAST</t>
+  </si>
+  <si>
+    <t>RAMP_ANGLE_TO_TOP</t>
+  </si>
+  <si>
+    <t>Y_TOP_BND_FINAL_ELEV</t>
+  </si>
+  <si>
+    <t>UPLIFT_RATE_TEMPORAL_DISTRIBUTION_COND</t>
+  </si>
+  <si>
+    <t>acceleratedUpliftPhaseNo</t>
+  </si>
+  <si>
+    <t>dUpliftRate</t>
+  </si>
+  <si>
+    <t>upliftRate0</t>
+  </si>
+  <si>
+    <t>waveArrivalTime</t>
+  </si>
+  <si>
+    <t>initUpliftRate</t>
+  </si>
+  <si>
+    <t>kw0</t>
+  </si>
+  <si>
+    <t>kwa</t>
+  </si>
+  <si>
+    <t>kw1</t>
+  </si>
+  <si>
+    <t>kwm</t>
+  </si>
+  <si>
+    <t>kmd</t>
+  </si>
+  <si>
+    <t>soilCriticalSlopeForFailure</t>
+  </si>
+  <si>
+    <t>rockCriticalSlopeForFailure</t>
+  </si>
+  <si>
+    <t>annualPrecipitation</t>
+  </si>
+  <si>
+    <t>annualEvapotranspiration</t>
+  </si>
+  <si>
+    <t>kqb</t>
+  </si>
+  <si>
+    <t>mqb</t>
+  </si>
+  <si>
+    <t>bankfullTime</t>
+  </si>
+  <si>
+    <t>timeWeight</t>
+  </si>
+  <si>
+    <t>minSubDT</t>
+  </si>
+  <si>
+    <t>khw</t>
+  </si>
+  <si>
+    <t>mhw</t>
+  </si>
+  <si>
+    <t>khd</t>
+  </si>
+  <si>
+    <t>mhd</t>
+  </si>
+  <si>
+    <t>FLUVIALPROCESS_COND</t>
+  </si>
+  <si>
+    <t>channelInitiation</t>
+  </si>
+  <si>
+    <t>criticalUpslopeCellsNo</t>
+  </si>
+  <si>
+    <t>mfa</t>
+  </si>
+  <si>
+    <t>nfa</t>
+  </si>
+  <si>
+    <t>fSRho</t>
+  </si>
+  <si>
+    <t>fSD50</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>nA</t>
+  </si>
+  <si>
+    <t>mfb</t>
+  </si>
+  <si>
+    <t>nfb</t>
+  </si>
+  <si>
+    <t>kfbre</t>
+  </si>
+  <si>
+    <t>nB</t>
+  </si>
+  <si>
+    <t>WRITE_INTERVAL</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>[m/year]</t>
+  </si>
+  <si>
+    <t>[m/m*year]</t>
+  </si>
+  <si>
+    <t>[m^2/m year]</t>
+  </si>
+  <si>
+    <t>[s]</t>
+  </si>
+  <si>
+    <t>[kg/m^3]</t>
+  </si>
+  <si>
+    <t>[m^-1/3 s]</t>
+  </si>
+  <si>
+    <t>[m^2]</t>
+  </si>
+  <si>
+    <t>[m^1-2mqa s^-1]</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Initial Topography</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Boundary &amp; Uplift Condition</t>
+  </si>
+  <si>
+    <t>Hillslope Process</t>
+  </si>
+  <si>
+    <t>Weathering Process</t>
+  </si>
+  <si>
+    <t>Hydrology</t>
+  </si>
+  <si>
+    <t>Fluvial Process</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Uplift Rate</t>
+  </si>
+  <si>
+    <t>Total Recording No</t>
+  </si>
+  <si>
+    <t>sub-directory for model result</t>
+  </si>
+  <si>
+    <t>셀 크기.</t>
+  </si>
+  <si>
+    <t>초기 지형을 만들 경우, 외곽 경계를 제외한 Y축 크기.</t>
+  </si>
+  <si>
+    <t>초기 지형을 만들 경우, 외곽 경계를 제외한 X축 크기.</t>
+  </si>
+  <si>
+    <t>초기 지형을 만들 경우, 평탄면의 경사(아래에서 위로의 경사).</t>
+  </si>
+  <si>
+    <t>초기 지형의 퇴적층 두께를 만들 경우, 퇴적층 두께.</t>
+  </si>
+  <si>
+    <t>초지 지형의 퇴적층 두께를 불러올 경우, 이를 저장한 파일. 없다면 No라고 표기함</t>
+  </si>
+  <si>
+    <t>초기 지형을 불러올 경우, 초기 지형을 저장한 파일. 없다면 No라고 표기함.</t>
+  </si>
+  <si>
+    <t>총 실행 횟수</t>
+  </si>
+  <si>
+    <t>이전 모형 결과에 이어서 할 경우의 초기 실행 횟수, 이어서 하지 않는다면 1</t>
+  </si>
+  <si>
+    <t>만제유량 재현 기간</t>
+  </si>
+  <si>
+    <t>모의 결과를 출력하는 실행 간격</t>
+  </si>
+  <si>
+    <t>모델 영역으로부터 유출이 발생한는 유출구 또는 경계 조건. 0, 하나의 유출구, 1, 아래의 경계면, 2, 위 아래 경계면, 4, 모든 경계면.</t>
+  </si>
+  <si>
+    <t>외곽 경계 고도 조건. 0: 고도 (inf) 고정. 1: 경동성 요곡 지반융기운동 모의시 영서쪽 외곽 경계</t>
+  </si>
+  <si>
+    <t>좌우 외곽 경계 연결 조건. 0: 연결 안됨. 1: 연결됨.</t>
+  </si>
+  <si>
+    <t>모의기간 동안 총 지반 융기량</t>
+  </si>
+  <si>
+    <t>경동성 요곡 지반융기운동 조건. 0: 동질한 지반융기. 1: 경동성 요곡 지반융기</t>
+  </si>
+  <si>
+    <t>(경동성 요곡 지반융기운동 조건시) 해안선으로부터 융기축까지의 거리</t>
+  </si>
+  <si>
+    <t>(경동성 요곡 지반융기운동 조건시) 누적 지반 융기량을 기준으로한 융기축에서 위 경계로의 각</t>
+  </si>
+  <si>
+    <t>(경동성 요곡 지반융기운동 조건시) 위 경계의 최종 고도</t>
+  </si>
+  <si>
+    <t>융기율의 시간적 분포 조건. 1: 융기율 일정. 2: 융기율 변동. 3: 융기율 돌출-감쇠</t>
+  </si>
+  <si>
+    <t>(융기율 변동 조건) 모의기간 동안 높은 융기율이 발생하는 빈도. 융기율 변동 조건이 아니라면 0</t>
+  </si>
+  <si>
+    <t>(융기율 변동 조건) 평균 연간 융기율을 기준으로 최대 최소 융기율의 차이 비율. 융기율 변동 조건이 아니라면 0.</t>
+  </si>
+  <si>
+    <t>(융기율 돌출-감쇠 조건) 융기율 돌출-감쇠 분포의 초기 융기율. 융기율 돌출-감쇠 조건이 아니라면 0.</t>
+  </si>
+  <si>
+    <t>(경동성 요곡 지반융기운동 조건시) 영서 외곽 경계 고도가 본격적으로 하강하는 시점 (모의 기간에서의 비율). 특별히 하강하지 않을 경우 0.</t>
+  </si>
+  <si>
+    <t>(경동성 요곡 지반융기운동 조건시) 모의기간 이전 융기율</t>
+  </si>
+  <si>
+    <t>선형 풍화함수에서 연장되는 노출 기반암의 풍화률</t>
+  </si>
+  <si>
+    <t>선형 풍화함수의 증가율</t>
+  </si>
+  <si>
+    <t>지수 감소 풍화함수에서 연장되는 노출 기반암의 풍화율</t>
+  </si>
+  <si>
+    <t>풍화층 두께 규모 (characteristic regolith thickness scale)</t>
+  </si>
+  <si>
+    <t>사면작용의 확산 계수</t>
+  </si>
+  <si>
+    <t>기반암 활동의 안정 사면각</t>
+  </si>
+  <si>
+    <t>천부 활동의 안정 사면각</t>
+  </si>
+  <si>
+    <t>연간 강우량</t>
+  </si>
+  <si>
+    <t>연간 증발산량</t>
+  </si>
+  <si>
+    <t>평균 유량과 만수 유량과의 관계식에서 계수</t>
+  </si>
+  <si>
+    <t>평균 유량과 만수 유량과의 관계식에서 지수</t>
+  </si>
+  <si>
+    <t>만수 유량 지속 기간</t>
+  </si>
+  <si>
+    <t>만수 유량 지속 기간을 줄이기 위한 운반율 및 침식율 가중치</t>
+  </si>
+  <si>
+    <t>최소한의 세부 단위 시간</t>
+  </si>
+  <si>
+    <t>만수 유량과 하폭과의 관계식에서 계수</t>
+  </si>
+  <si>
+    <t>만수 유량과 하폭과의 관계식에서 지수</t>
+  </si>
+  <si>
+    <t>만수 유량과 수심과의 관계식에서 계수</t>
+  </si>
+  <si>
+    <t>만수 유량과 수심과의 관계식에서 지수</t>
+  </si>
+  <si>
+    <t>flooded region 순 퇴적물 두께 변화율을 추정하는 방법. 1: 간단, 2: 자세</t>
+  </si>
+  <si>
+    <t>하천 시작 지점 임계값</t>
+  </si>
+  <si>
+    <t>(초기 지형이 평탄하여 하도가 형성되지 않을 경우) 하천 시작 임계 상부 유역 셀 개수</t>
+  </si>
+  <si>
+    <t>critical upslope contributing area</t>
+  </si>
+  <si>
+    <t>하천에 의한 퇴적물 이동율 수식에서 유량의 지수</t>
+  </si>
+  <si>
+    <t>하천에 의한 퇴적물 이동율 수식에서 경사의 지수</t>
+  </si>
+  <si>
+    <t>운반되는 퇴적물의 평균 밀도</t>
+  </si>
+  <si>
+    <t>운반되는 퇴적물의 중간 입경</t>
+  </si>
+  <si>
+    <t>운반되는 퇴적물의 평균 공극율</t>
+  </si>
+  <si>
+    <t>충적 하천 하도에서의 Mannning 저항 계수</t>
+  </si>
+  <si>
+    <t>기반암 하상 침식률 수식에서 유량의 지수</t>
+  </si>
+  <si>
+    <t>기반암 하상 침식률 수식에서 경사의 지수</t>
+  </si>
+  <si>
+    <t>기반암 하상 연약도</t>
+  </si>
+  <si>
+    <t>기반암 하상 하도에서의 Manning 저항 계수</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>20140403_1240</t>
+  </si>
+  <si>
+    <t>Weathering Rate</t>
+  </si>
+  <si>
+    <t>linear function</t>
+  </si>
+  <si>
+    <t>exponential decay function</t>
+  </si>
+  <si>
+    <t>W = W0 + b*Dr</t>
+  </si>
+  <si>
+    <t>W = W1 * e^(-Dr/Drcw)</t>
+  </si>
+  <si>
+    <t>W0</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>Drcw</t>
+  </si>
+  <si>
+    <t>Regolith Depth[m]</t>
+  </si>
+  <si>
+    <t>[m^1-3mhw s^3mhw]</t>
+  </si>
+  <si>
+    <t>[m^2-2mfa*pfa S^-2mfa*pfa]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -132,6 +611,104 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="굴림"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="대한 Regular"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -147,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -155,13 +732,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,9 +917,147 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="25">
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Total" xfId="2" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -209,6 +1072,776 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.156574092498365"/>
+          <c:y val="0.119935170178282"/>
+          <c:w val="0.804770743909719"/>
+          <c:h val="0.727887798466035"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Linear Function</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Weathering!$B$9:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Weathering!$C$9:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.16E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.92E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.68E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.44E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.000102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0001196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0001372</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0001548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0001724</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0002076</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0002252</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0002428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0002604</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.000278</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0002956</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0003132</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0003308</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0003484</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.000366</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0003836</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0004012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0004188</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0004364</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.000454</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0004716</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0004892</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0005068</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0005244</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.000542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0005596</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0005772</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0005948</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0006124</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00063</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0006476</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0006652</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0006828</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0007004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.000718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Exponetial Decay Curve</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Weathering!$B$9:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Weathering!$D$9:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.000516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000466896107680087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000422465068540341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000382262201806757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000345885143675959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00031296982032301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000283186804128197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.000256238016654687</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.000231853745379339</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.000209789944319115</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.000189825791536855</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.000171761479081103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.000155416213240972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.000140626405101916</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.000127244033292883</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.000115135162538687</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00010417860319075</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.42646983203676E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.52942262353049E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.71774074357532E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.98330060709175E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.31875169033165E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.71744296436593E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.17335632935146E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.681046383365E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.23558592299045E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.83251663021087E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.4678044520633E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.13779922648068E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.83919815024306E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.56901272341277E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.32453883942256E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.10332972146818E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.90317143434368E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.72206072663371E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.55818498150004E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.40990407540298E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.27573396319369E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.15433182529152E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.04448262829431E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.45086964515659E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2127434520"/>
+        <c:axId val="-2127437704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2127434520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Regolith</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> Depth [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.415832314733221"/>
+              <c:y val="0.904051863857374"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2127437704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2127437704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Weahthering</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> Rate [m/year]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0180505415162455"/>
+              <c:y val="0.081456118633469"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2127434520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,183 +2131,1979 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="57.6640625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="16" thickBot="1">
+      <c r="A1" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" thickTop="1" thickBot="1">
+      <c r="A2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="45"/>
+      <c r="G2" s="35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="11">
+        <v>100</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18">
+      <c r="A4" s="20"/>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="12">
+        <v>100</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" thickBot="1">
+      <c r="A5" s="21"/>
+      <c r="B5" s="13">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="13">
+        <v>25</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="15">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="A7" s="20"/>
+      <c r="B7" s="16">
+        <v>6</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18">
+      <c r="A8" s="20"/>
+      <c r="B8" s="16">
+        <v>7</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19" thickBot="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="17">
+        <v>8</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18">
+      <c r="A10" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="15">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="15">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18">
+      <c r="A11" s="20"/>
+      <c r="B11" s="16">
+        <v>10</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18">
+      <c r="A12" s="20"/>
+      <c r="B12" s="16">
+        <v>11</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="16">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18">
+      <c r="A13" s="20"/>
+      <c r="B13" s="16">
+        <v>12</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="16">
+        <v>200</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19" thickBot="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="43">
+        <f>E10/E13</f>
+        <v>50</v>
+      </c>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" ht="18">
+      <c r="A15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18">
+      <c r="A16" s="20"/>
+      <c r="B16" s="16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18">
+      <c r="A17" s="20"/>
+      <c r="B17" s="16">
+        <v>15</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18">
+      <c r="A18" s="20"/>
+      <c r="B18" s="26">
+        <v>16</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="26">
+        <v>4</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18">
+      <c r="A19" s="20"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="40">
+        <f>E18/(E10*E12)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" ht="18">
+      <c r="A20" s="20"/>
+      <c r="B20" s="28">
+        <v>17</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18">
+      <c r="A21" s="20"/>
+      <c r="B21" s="16">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>100000</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3">
-        <v>300</v>
-      </c>
-      <c r="F4" s="3">
-        <f>E4/1000000</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <f>B3*B4</f>
-        <v>200000</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="C21" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="29">
         <v>0</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F21" s="29"/>
+      <c r="G21" s="35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18">
+      <c r="A22" s="20"/>
+      <c r="B22" s="16">
+        <v>19</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27">
+        <v>20</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="30">
+        <v>0</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18">
+      <c r="A24" s="20"/>
+      <c r="B24" s="28">
+        <v>21</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="28">
         <v>1</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <f>B3*B4*F4</f>
-        <v>59.999999999999993</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18">
+      <c r="A25" s="20"/>
+      <c r="B25" s="16">
+        <v>22</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="29">
+        <v>0</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18">
+      <c r="A26" s="20"/>
+      <c r="B26" s="16">
+        <v>23</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18">
+      <c r="A27" s="20"/>
+      <c r="B27" s="27">
+        <v>24</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="30">
+        <v>0</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18">
+      <c r="A28" s="20"/>
+      <c r="B28" s="16">
+        <v>25</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="29">
+        <v>0</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19" thickBot="1">
+      <c r="A29" s="21"/>
+      <c r="B29" s="17">
+        <v>26</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="31">
+        <v>0</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18">
+      <c r="A30" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="15">
+        <v>27</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1.4E-5</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18">
+      <c r="A31" s="20"/>
+      <c r="B31" s="16">
+        <v>28</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="37">
+        <v>3.5199999999999999E-4</v>
+      </c>
+      <c r="F31" s="36"/>
+      <c r="G31" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18">
+      <c r="A32" s="20"/>
+      <c r="B32" s="16">
+        <v>29</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="37">
+        <v>5.1599999999999997E-4</v>
+      </c>
+      <c r="F32" s="36"/>
+      <c r="G32" s="35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19" thickBot="1">
+      <c r="A33" s="21"/>
+      <c r="B33" s="17">
+        <v>30</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18">
+      <c r="A34" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="15">
+        <v>31</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18">
+      <c r="A35" s="20"/>
+      <c r="B35" s="16">
+        <v>32</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19" thickBot="1">
+      <c r="A36" s="21"/>
+      <c r="B36" s="17">
+        <v>33</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18">
+      <c r="A37" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="15">
+        <v>34</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18">
+      <c r="A38" s="20"/>
+      <c r="B38" s="16">
+        <v>35</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18">
+      <c r="A39" s="20"/>
+      <c r="B39" s="26">
+        <v>36</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="26">
+        <v>25</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18">
+      <c r="A40" s="20"/>
+      <c r="B40" s="16">
+        <v>37</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18">
+      <c r="A41" s="20"/>
+      <c r="B41" s="26">
+        <v>38</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="33">
+        <v>3600</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18">
+      <c r="A42" s="20"/>
+      <c r="B42" s="16">
+        <v>39</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="23">
+        <v>1</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18">
+      <c r="A43" s="20"/>
+      <c r="B43" s="16">
+        <v>40</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="23">
+        <v>1</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18">
+      <c r="A44" s="20"/>
+      <c r="B44" s="26">
+        <v>41</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="26">
         <v>5</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7">
-        <f>B6/B5</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="7">
-        <f>B7*B4</f>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="F44" s="16"/>
+      <c r="G44" s="35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18">
+      <c r="A45" s="20"/>
+      <c r="B45" s="16">
+        <v>42</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18">
+      <c r="A46" s="20"/>
+      <c r="B46" s="16">
+        <v>43</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="23">
+        <v>0.53</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="19" thickBot="1">
+      <c r="A47" s="21"/>
+      <c r="B47" s="17">
+        <v>44</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18">
+      <c r="A48" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="15">
+        <v>45</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="15">
+        <v>1</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18">
+      <c r="A49" s="20"/>
+      <c r="B49" s="26">
+        <v>46</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="26">
+        <v>6000</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18">
+      <c r="A50" s="20"/>
+      <c r="B50" s="16">
+        <v>47</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="23">
         <v>10</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6000</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <f>B11/(B10^2)</f>
-        <v>60</v>
+      <c r="F50" s="16"/>
+      <c r="G50" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18">
+      <c r="A51" s="20"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="41">
+        <f>E50*E5^2</f>
+        <v>6250</v>
+      </c>
+      <c r="F51" s="34"/>
+    </row>
+    <row r="52" spans="1:7" ht="18">
+      <c r="A52" s="20"/>
+      <c r="B52" s="26">
+        <v>48</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="26">
+        <v>1.8</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18">
+      <c r="A53" s="20"/>
+      <c r="B53" s="16">
+        <v>49</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18">
+      <c r="A54" s="20"/>
+      <c r="B54" s="16">
+        <v>50</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="23">
+        <v>2650</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18">
+      <c r="A55" s="20"/>
+      <c r="B55" s="16">
+        <v>51</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18">
+      <c r="A56" s="20"/>
+      <c r="B56" s="16">
+        <v>52</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18">
+      <c r="A57" s="20"/>
+      <c r="B57" s="27">
+        <v>53</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18">
+      <c r="A58" s="20"/>
+      <c r="B58" s="26">
+        <v>54</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18">
+      <c r="A59" s="20"/>
+      <c r="B59" s="16">
+        <v>55</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18">
+      <c r="A60" s="20"/>
+      <c r="B60" s="16">
+        <v>56</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="23">
+        <v>3.1000000000000003E-11</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="19" thickBot="1">
+      <c r="A61" s="21"/>
+      <c r="B61" s="17">
+        <v>57</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F61" s="16"/>
+      <c r="G61" s="35" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="15" thickBot="1">
+      <c r="B2" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3">
+        <f>List!E30</f>
+        <v>1.4E-5</v>
+      </c>
+      <c r="D3">
+        <f>List!E31</f>
+        <v>3.5199999999999999E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15" thickBot="1">
+      <c r="B5" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6">
+        <f>List!E32</f>
+        <v>5.1599999999999997E-4</v>
+      </c>
+      <c r="D6">
+        <f>List!E33</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="16" thickBot="1">
+      <c r="B8" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15" thickTop="1">
+      <c r="B9" s="46">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>$C$3+$D$3*B9</f>
+        <v>1.4E-5</v>
+      </c>
+      <c r="D9">
+        <f>$C$6*2.71828183^(-B9/$D$6)</f>
+        <v>5.1599999999999997E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C49" si="0">$C$3+$D$3*B10</f>
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D49" si="1">$C$6*2.71828183^(-B10/$D$6)</f>
+        <v>4.668961076800874E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>4.9200000000000003E-5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>4.2246506854034068E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>6.6799999999999997E-5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>3.8226220180675671E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>8.4400000000000005E-5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>3.4588514367595892E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.02E-4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>3.1296982032300973E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.1959999999999999E-4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>2.8318680412819691E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="46">
+        <v>0.35</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.3719999999999997E-4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>2.5623801665468701E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.548E-4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>2.3185374537933867E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="46">
+        <v>0.45</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.7239999999999999E-4</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>2.0978994431911489E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1.8999999999999998E-4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1.8982579153685472E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="46">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2.076E-4</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1.7176147908110301E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="46">
+        <v>0.6</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2.2519999999999997E-4</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>1.5541621324097242E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="46">
+        <v>0.65</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2.4279999999999999E-4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>1.4062640510191567E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2.6039999999999999E-4</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>1.2724403329288303E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>2.7800000000000004E-4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1.1513516253868707E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>2.9560000000000003E-4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1.0417860319075039E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="46">
+        <v>0.85</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>3.1320000000000002E-4</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>9.4264698320367654E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>3.3080000000000002E-4</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>8.5294226235304918E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="46">
+        <v>0.95</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3.4840000000000001E-4</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>7.717740743575325E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="46">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>6.9833006070917485E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="46">
+        <v>1.05</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>3.836E-4</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>6.3187516903316472E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>4.0120000000000005E-4</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>5.7174429643659265E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="46">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>4.1879999999999999E-4</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>5.1733563293514596E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="46">
+        <v>1.2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>4.3639999999999998E-4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>4.6810463833650024E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="46">
+        <v>1.25</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>4.2355859229904461E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="46">
+        <v>1.3</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>4.7160000000000002E-4</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>3.8325166302108704E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="46">
+        <v>1.35</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>4.8919999999999996E-4</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>3.4678044520632958E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="46">
+        <v>1.4</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>5.0679999999999996E-4</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>3.1377992264806821E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="46">
+        <v>1.45</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>5.2439999999999995E-4</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>2.8391981502430606E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>5.4200000000000006E-4</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>2.5690127234127703E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="46">
+        <v>1.55</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>5.5960000000000005E-4</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>2.3245388394225647E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="46">
+        <v>1.6</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>5.7720000000000004E-4</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>2.1033297214681841E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="46">
+        <v>1.65</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>5.9479999999999993E-4</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>1.9031714343436784E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="46">
+        <v>1.7</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>6.1240000000000003E-4</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>1.7220607266337067E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="46">
+        <v>1.75</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>1.5581849815000399E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="46">
+        <v>1.8</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>6.4760000000000002E-4</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>1.40990407540298E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="46">
+        <v>1.85</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>6.6520000000000001E-4</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>1.2757339631936898E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="46">
+        <v>1.9</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>6.8280000000000001E-4</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>1.1543318252915233E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="46">
+        <v>1.95</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>7.004E-4</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>1.0444826282943075E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="46">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>7.18E-4</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>9.4508696451565879E-6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3">
+        <v>300</v>
+      </c>
+      <c r="F4" s="3">
+        <f>E4/1000000</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B3*B4</f>
+        <v>200000</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B3*B4*F4</f>
+        <v>59.999999999999993</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7">
+        <f>B6/B5</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7">
+        <f>B7*B4</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <f>B11/(B10^2)</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/input/guideForParameterInput.xlsx
+++ b/data/input/guideForParameterInput.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="179">
   <si>
     <t>[m/Myr]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,9 +393,6 @@
     <t>모의 결과를 출력하는 실행 간격</t>
   </si>
   <si>
-    <t>모델 영역으로부터 유출이 발생한는 유출구 또는 경계 조건. 0, 하나의 유출구, 1, 아래의 경계면, 2, 위 아래 경계면, 4, 모든 경계면.</t>
-  </si>
-  <si>
     <t>외곽 경계 고도 조건. 0: 고도 (inf) 고정. 1: 경동성 요곡 지반융기운동 모의시 영서쪽 외곽 경계</t>
   </si>
   <si>
@@ -571,6 +568,15 @@
   </si>
   <si>
     <t>[m^2-2mfa*pfa S^-2mfa*pfa]</t>
+  </si>
+  <si>
+    <t>INIT_ELEV_20140403T194139.txt</t>
+  </si>
+  <si>
+    <t>[m/Myr]</t>
+  </si>
+  <si>
+    <t>모델 영역으로부터 유출이 발생한는 유출구 또는 경계 조건. 0: 하나의 유출구(mid bottom). 1: 아래의 경계면. 2: 위 아래 경계면. 3: 하나의 유출구(left edge) 4, 모든 경계면.</t>
   </si>
 </sst>
 </file>
@@ -710,7 +716,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,8 +729,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -812,8 +824,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,8 +906,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -917,9 +956,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -927,9 +963,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1031,8 +1064,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -1044,6 +1104,9 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1056,6 +1119,9 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="2" builtinId="25"/>
   </cellStyles>
@@ -2131,10 +2197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2142,1176 +2208,1191 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="57.6640625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="57.6640625" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" thickTop="1" thickBot="1">
+      <c r="A2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="47">
+        <v>1</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" thickTop="1" thickBot="1">
-      <c r="A2" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="F2" s="43"/>
+      <c r="G2" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="10">
+        <v>100</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18">
+      <c r="A4" s="18"/>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="11">
+        <v>100</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" thickBot="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="12">
+        <v>25</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="13">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="A7" s="18"/>
+      <c r="B7" s="48">
+        <v>6</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18">
+      <c r="A8" s="18"/>
+      <c r="B8" s="14">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19" thickBot="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="15">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18">
+      <c r="A10" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="49">
+        <v>9</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="49">
+        <v>500000</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18">
+      <c r="A11" s="18"/>
+      <c r="B11" s="14">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18">
+      <c r="A12" s="18"/>
+      <c r="B12" s="14">
+        <v>11</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18">
+      <c r="A13" s="18"/>
+      <c r="B13" s="14">
+        <v>12</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="14">
+        <f>E10/E14</f>
+        <v>10000</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19" thickBot="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="41">
+        <v>50</v>
+      </c>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" ht="18">
+      <c r="A15" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="13">
+        <v>13</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18">
+      <c r="A16" s="18"/>
+      <c r="B16" s="14">
+        <v>14</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18">
+      <c r="A17" s="18"/>
+      <c r="B17" s="14">
+        <v>15</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18">
+      <c r="A18" s="18"/>
+      <c r="B18" s="50">
+        <v>16</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="50">
+        <f>(E10*E12)*E19</f>
+        <v>1000</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18">
+      <c r="A19" s="18"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="51">
+        <f>E20*0.000001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="18">
+      <c r="A20" s="18"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="52">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" ht="18">
+      <c r="A21" s="18"/>
+      <c r="B21" s="26">
+        <v>17</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18">
+      <c r="A22" s="18"/>
+      <c r="B22" s="14">
+        <v>18</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="27">
+        <v>0</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18">
+      <c r="A23" s="18"/>
+      <c r="B23" s="14">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18">
-      <c r="A3" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="C23" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18">
+      <c r="A24" s="18"/>
+      <c r="B24" s="25">
         <v>20</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="11">
-        <v>100</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18">
-      <c r="A4" s="20"/>
-      <c r="B4" s="12">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="12">
-        <v>100</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="19" thickBot="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="13">
-        <v>4</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="13">
-        <v>25</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18">
-      <c r="A6" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="15">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18">
-      <c r="A7" s="20"/>
-      <c r="B7" s="16">
-        <v>6</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18">
-      <c r="A8" s="20"/>
-      <c r="B8" s="16">
-        <v>7</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19" thickBot="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="17">
-        <v>8</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18">
-      <c r="A10" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="15">
-        <v>9</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="15">
-        <v>10000</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18">
-      <c r="A11" s="20"/>
-      <c r="B11" s="16">
-        <v>10</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="23">
-        <v>1</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18">
-      <c r="A12" s="20"/>
-      <c r="B12" s="16">
-        <v>11</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="16">
-        <v>2</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18">
-      <c r="A13" s="20"/>
-      <c r="B13" s="16">
-        <v>12</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="16">
-        <v>200</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19" thickBot="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="43">
-        <f>E10/E13</f>
-        <v>50</v>
-      </c>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" ht="18">
-      <c r="A15" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="15">
-        <v>13</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18">
-      <c r="A16" s="20"/>
-      <c r="B16" s="16">
-        <v>14</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="23">
-        <v>0</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18">
-      <c r="A17" s="20"/>
-      <c r="B17" s="16">
-        <v>15</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="23">
-        <v>0</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18">
-      <c r="A18" s="20"/>
-      <c r="B18" s="26">
-        <v>16</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="26">
-        <v>4</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18">
-      <c r="A19" s="20"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="40">
-        <f>E18/(E10*E12)</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" ht="18">
-      <c r="A20" s="20"/>
-      <c r="B20" s="28">
-        <v>17</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="28">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18">
-      <c r="A21" s="20"/>
-      <c r="B21" s="16">
-        <v>18</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="29">
-        <v>0</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18">
-      <c r="A22" s="20"/>
-      <c r="B22" s="16">
-        <v>19</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="29">
-        <v>0</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18">
-      <c r="A23" s="20"/>
-      <c r="B23" s="27">
-        <v>20</v>
-      </c>
-      <c r="C23" s="30" t="s">
+      <c r="C24" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="30">
-        <v>0</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18">
-      <c r="A24" s="20"/>
-      <c r="B24" s="28">
-        <v>21</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>82</v>
       </c>
       <c r="E24" s="28">
+        <v>0</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18">
+      <c r="A25" s="18"/>
+      <c r="B25" s="26">
+        <v>21</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="26">
         <v>1</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="35" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18">
+      <c r="A26" s="18"/>
+      <c r="B26" s="14">
+        <v>22</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="33" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18">
-      <c r="A25" s="20"/>
-      <c r="B25" s="16">
-        <v>22</v>
-      </c>
-      <c r="C25" s="29" t="s">
+    <row r="27" spans="1:7" ht="18">
+      <c r="A27" s="18"/>
+      <c r="B27" s="14">
+        <v>23</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18">
+      <c r="A28" s="18"/>
+      <c r="B28" s="25">
+        <v>24</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18">
+      <c r="A29" s="18"/>
+      <c r="B29" s="14">
+        <v>25</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19" thickBot="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="15">
+        <v>26</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="29">
+        <v>0</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18">
+      <c r="A31" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="13">
+        <v>27</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1.4E-5</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18">
+      <c r="A32" s="18"/>
+      <c r="B32" s="14">
+        <v>28</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="35">
+        <v>3.5199999999999999E-4</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18">
+      <c r="A33" s="18"/>
+      <c r="B33" s="14">
+        <v>29</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="35">
+        <v>5.1599999999999997E-4</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="G33" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19" thickBot="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="15">
+        <v>30</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18">
+      <c r="A35" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="13">
+        <v>31</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18">
+      <c r="A36" s="18"/>
+      <c r="B36" s="14">
+        <v>32</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19" thickBot="1">
+      <c r="A37" s="19"/>
+      <c r="B37" s="15">
+        <v>33</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18">
+      <c r="A38" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="13">
+        <v>34</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18">
+      <c r="A39" s="18"/>
+      <c r="B39" s="14">
+        <v>35</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18">
+      <c r="A40" s="18"/>
+      <c r="B40" s="50">
+        <v>36</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="50">
+        <v>25</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18">
+      <c r="A41" s="18"/>
+      <c r="B41" s="48">
+        <v>37</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="48">
+        <v>0.75</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18">
+      <c r="A42" s="18"/>
+      <c r="B42" s="24">
+        <v>38</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="31">
+        <v>3600</v>
+      </c>
+      <c r="F42" s="21"/>
+      <c r="G42" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18">
+      <c r="A43" s="18"/>
+      <c r="B43" s="14">
+        <v>39</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="21">
+        <v>1</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18">
+      <c r="A44" s="18"/>
+      <c r="B44" s="14">
+        <v>40</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="21">
+        <v>1</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18">
+      <c r="A45" s="18"/>
+      <c r="B45" s="24">
+        <v>41</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="24">
+        <v>5</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18">
+      <c r="A46" s="18"/>
+      <c r="B46" s="14">
         <v>42</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="C46" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="29">
-        <v>0</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18">
-      <c r="A26" s="20"/>
-      <c r="B26" s="16">
-        <v>23</v>
-      </c>
-      <c r="C26" s="29" t="s">
+      <c r="E46" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18">
+      <c r="A47" s="18"/>
+      <c r="B47" s="14">
         <v>43</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="29">
-        <v>0</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18">
-      <c r="A27" s="20"/>
-      <c r="B27" s="27">
-        <v>24</v>
-      </c>
-      <c r="C27" s="30" t="s">
+      <c r="C47" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="21">
+        <v>0.53</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="19" thickBot="1">
+      <c r="A48" s="19"/>
+      <c r="B48" s="15">
         <v>44</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="30">
-        <v>0</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18">
-      <c r="A28" s="20"/>
-      <c r="B28" s="16">
-        <v>25</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="29">
-        <v>0</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="19" thickBot="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="17">
-        <v>26</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="31">
-        <v>0</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18">
-      <c r="A30" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="15">
-        <v>27</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="15">
-        <v>1.4E-5</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18">
-      <c r="A31" s="20"/>
-      <c r="B31" s="16">
-        <v>28</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="37">
-        <v>3.5199999999999999E-4</v>
-      </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18">
-      <c r="A32" s="20"/>
-      <c r="B32" s="16">
-        <v>29</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="37">
-        <v>5.1599999999999997E-4</v>
-      </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="19" thickBot="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="17">
-        <v>30</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18">
-      <c r="A34" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="15">
-        <v>31</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="15">
-        <v>2E-3</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18">
-      <c r="A35" s="20"/>
-      <c r="B35" s="16">
-        <v>32</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="19" thickBot="1">
-      <c r="A36" s="21"/>
-      <c r="B36" s="17">
-        <v>33</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="18">
-      <c r="A37" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="15">
-        <v>34</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18">
-      <c r="A38" s="20"/>
-      <c r="B38" s="16">
-        <v>35</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="18">
-      <c r="A39" s="20"/>
-      <c r="B39" s="26">
-        <v>36</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="26">
-        <v>25</v>
-      </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="18">
-      <c r="A40" s="20"/>
-      <c r="B40" s="16">
-        <v>37</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="18">
-      <c r="A41" s="20"/>
-      <c r="B41" s="26">
-        <v>38</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="33">
-        <v>3600</v>
-      </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="18">
-      <c r="A42" s="20"/>
-      <c r="B42" s="16">
-        <v>39</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="23">
-        <v>1</v>
-      </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="18">
-      <c r="A43" s="20"/>
-      <c r="B43" s="16">
-        <v>40</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="23">
-        <v>1</v>
-      </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="18">
-      <c r="A44" s="20"/>
-      <c r="B44" s="26">
-        <v>41</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E44" s="26">
-        <v>5</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18">
-      <c r="A45" s="20"/>
-      <c r="B45" s="16">
-        <v>42</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18">
-      <c r="A46" s="20"/>
-      <c r="B46" s="16">
-        <v>43</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="23">
-        <v>0.53</v>
-      </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="19" thickBot="1">
-      <c r="A47" s="21"/>
-      <c r="B47" s="17">
-        <v>44</v>
-      </c>
-      <c r="C47" s="17" t="s">
+      <c r="C48" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="18">
-      <c r="A48" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="15">
-        <v>45</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>82</v>
       </c>
       <c r="E48" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18">
+      <c r="A49" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="13">
+        <v>45</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="13">
         <v>1</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="35" t="s">
+      <c r="F49" s="14"/>
+      <c r="G49" s="33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18">
+      <c r="A50" s="18"/>
+      <c r="B50" s="24">
+        <v>46</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="24">
+        <v>6000</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="33" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18">
-      <c r="A49" s="20"/>
-      <c r="B49" s="26">
-        <v>46</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="26" t="s">
+    <row r="51" spans="1:7" ht="18">
+      <c r="A51" s="18"/>
+      <c r="B51" s="14">
+        <v>47</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="21">
+        <v>10</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18">
+      <c r="A52" s="18"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="26">
-        <v>6000</v>
-      </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="18">
-      <c r="A50" s="20"/>
-      <c r="B50" s="16">
-        <v>47</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="16" t="s">
+      <c r="E52" s="39">
+        <f>E51*E5^2</f>
+        <v>6250</v>
+      </c>
+      <c r="F52" s="32"/>
+    </row>
+    <row r="53" spans="1:7" ht="18">
+      <c r="A53" s="18"/>
+      <c r="B53" s="24">
+        <v>48</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="23">
-        <v>10</v>
-      </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="18">
-      <c r="A51" s="20"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39" t="s">
+      <c r="E53" s="24">
+        <v>1.8</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="41">
-        <f>E50*E5^2</f>
-        <v>6250</v>
-      </c>
-      <c r="F51" s="34"/>
-    </row>
-    <row r="52" spans="1:7" ht="18">
-      <c r="A52" s="20"/>
-      <c r="B52" s="26">
-        <v>48</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="26" t="s">
+    </row>
+    <row r="54" spans="1:7" ht="18">
+      <c r="A54" s="18"/>
+      <c r="B54" s="14">
+        <v>49</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E52" s="26">
-        <v>1.8</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="35" t="s">
+      <c r="E54" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="F54" s="14"/>
+      <c r="G54" s="33" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18">
-      <c r="A53" s="20"/>
-      <c r="B53" s="16">
-        <v>49</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="16" t="s">
+    <row r="55" spans="1:7" ht="18">
+      <c r="A55" s="18"/>
+      <c r="B55" s="14">
+        <v>50</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="21">
+        <v>2650</v>
+      </c>
+      <c r="F55" s="14"/>
+      <c r="G55" s="33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18">
+      <c r="A56" s="18"/>
+      <c r="B56" s="14">
+        <v>51</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="F56" s="14"/>
+      <c r="G56" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18">
+      <c r="A57" s="18"/>
+      <c r="B57" s="14">
+        <v>52</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="F57" s="14"/>
+      <c r="G57" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18">
+      <c r="A58" s="18"/>
+      <c r="B58" s="25">
+        <v>53</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="F58" s="14"/>
+      <c r="G58" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18">
+      <c r="A59" s="18"/>
+      <c r="B59" s="24">
+        <v>54</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E53" s="23">
-        <v>2.1</v>
-      </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="18">
-      <c r="A54" s="20"/>
-      <c r="B54" s="16">
-        <v>50</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="23">
-        <v>2650</v>
-      </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="18">
-      <c r="A55" s="20"/>
-      <c r="B55" s="16">
-        <v>51</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="18">
-      <c r="A56" s="20"/>
-      <c r="B56" s="16">
-        <v>52</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="18">
-      <c r="A57" s="20"/>
-      <c r="B57" s="27">
-        <v>53</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="27" t="s">
+      <c r="E59" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="F59" s="14"/>
+      <c r="G59" s="33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18">
+      <c r="A60" s="18"/>
+      <c r="B60" s="14">
+        <v>55</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18">
+      <c r="A61" s="18"/>
+      <c r="B61" s="14">
+        <v>56</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="21">
+        <v>3.1000000000000003E-11</v>
+      </c>
+      <c r="F61" s="14"/>
+      <c r="G61" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="19" thickBot="1">
+      <c r="A62" s="19"/>
+      <c r="B62" s="15">
+        <v>57</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E57" s="27">
-        <v>0.03</v>
-      </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="18">
-      <c r="A58" s="20"/>
-      <c r="B58" s="26">
-        <v>54</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="18">
-      <c r="A59" s="20"/>
-      <c r="B59" s="16">
-        <v>55</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="18">
-      <c r="A60" s="20"/>
-      <c r="B60" s="16">
-        <v>56</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E60" s="23">
-        <v>3.1000000000000003E-11</v>
-      </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="35" t="s">
+      <c r="E62" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" s="33" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="19" thickBot="1">
-      <c r="A61" s="21"/>
-      <c r="B61" s="17">
-        <v>57</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="35" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3342,66 +3423,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1">
-      <c r="B2" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>170</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3">
-        <f>List!E30</f>
+        <f>List!E31</f>
         <v>1.4E-5</v>
       </c>
       <c r="D3">
-        <f>List!E31</f>
+        <f>List!E32</f>
         <v>3.5199999999999999E-4</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15" thickBot="1">
-      <c r="B5" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="45" t="s">
         <v>172</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6">
-        <f>List!E32</f>
+        <f>List!E33</f>
         <v>5.1599999999999997E-4</v>
       </c>
       <c r="D6">
-        <f>List!E33</f>
+        <f>List!E34</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="16" thickBot="1">
-      <c r="B8" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>165</v>
+      <c r="B8" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15" thickTop="1">
-      <c r="B9" s="46">
+      <c r="B9" s="44">
         <v>0</v>
       </c>
       <c r="C9">
@@ -3414,7 +3495,7 @@
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="46">
+      <c r="B10" s="44">
         <v>0.05</v>
       </c>
       <c r="C10">
@@ -3427,7 +3508,7 @@
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="46">
+      <c r="B11" s="44">
         <v>0.1</v>
       </c>
       <c r="C11">
@@ -3440,7 +3521,7 @@
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="46">
+      <c r="B12" s="44">
         <v>0.15</v>
       </c>
       <c r="C12">
@@ -3453,7 +3534,7 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="46">
+      <c r="B13" s="44">
         <v>0.2</v>
       </c>
       <c r="C13">
@@ -3466,7 +3547,7 @@
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="46">
+      <c r="B14" s="44">
         <v>0.25</v>
       </c>
       <c r="C14">
@@ -3479,7 +3560,7 @@
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="46">
+      <c r="B15" s="44">
         <v>0.3</v>
       </c>
       <c r="C15">
@@ -3492,7 +3573,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="46">
+      <c r="B16" s="44">
         <v>0.35</v>
       </c>
       <c r="C16">
@@ -3505,7 +3586,7 @@
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="46">
+      <c r="B17" s="44">
         <v>0.4</v>
       </c>
       <c r="C17">
@@ -3518,7 +3599,7 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="46">
+      <c r="B18" s="44">
         <v>0.45</v>
       </c>
       <c r="C18">
@@ -3531,7 +3612,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="46">
+      <c r="B19" s="44">
         <v>0.5</v>
       </c>
       <c r="C19">
@@ -3544,7 +3625,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="46">
+      <c r="B20" s="44">
         <v>0.55000000000000004</v>
       </c>
       <c r="C20">
@@ -3557,7 +3638,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="46">
+      <c r="B21" s="44">
         <v>0.6</v>
       </c>
       <c r="C21">
@@ -3570,7 +3651,7 @@
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="46">
+      <c r="B22" s="44">
         <v>0.65</v>
       </c>
       <c r="C22">
@@ -3583,7 +3664,7 @@
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="46">
+      <c r="B23" s="44">
         <v>0.7</v>
       </c>
       <c r="C23">
@@ -3596,7 +3677,7 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="46">
+      <c r="B24" s="44">
         <v>0.75</v>
       </c>
       <c r="C24">
@@ -3609,7 +3690,7 @@
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="46">
+      <c r="B25" s="44">
         <v>0.8</v>
       </c>
       <c r="C25">
@@ -3622,7 +3703,7 @@
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="46">
+      <c r="B26" s="44">
         <v>0.85</v>
       </c>
       <c r="C26">
@@ -3635,7 +3716,7 @@
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="46">
+      <c r="B27" s="44">
         <v>0.9</v>
       </c>
       <c r="C27">
@@ -3648,7 +3729,7 @@
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="46">
+      <c r="B28" s="44">
         <v>0.95</v>
       </c>
       <c r="C28">
@@ -3661,7 +3742,7 @@
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="46">
+      <c r="B29" s="44">
         <v>1</v>
       </c>
       <c r="C29">
@@ -3674,7 +3755,7 @@
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="46">
+      <c r="B30" s="44">
         <v>1.05</v>
       </c>
       <c r="C30">
@@ -3687,7 +3768,7 @@
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="46">
+      <c r="B31" s="44">
         <v>1.1000000000000001</v>
       </c>
       <c r="C31">
@@ -3700,7 +3781,7 @@
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="46">
+      <c r="B32" s="44">
         <v>1.1499999999999999</v>
       </c>
       <c r="C32">
@@ -3713,7 +3794,7 @@
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="46">
+      <c r="B33" s="44">
         <v>1.2</v>
       </c>
       <c r="C33">
@@ -3726,7 +3807,7 @@
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="46">
+      <c r="B34" s="44">
         <v>1.25</v>
       </c>
       <c r="C34">
@@ -3739,7 +3820,7 @@
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="46">
+      <c r="B35" s="44">
         <v>1.3</v>
       </c>
       <c r="C35">
@@ -3752,7 +3833,7 @@
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="46">
+      <c r="B36" s="44">
         <v>1.35</v>
       </c>
       <c r="C36">
@@ -3765,7 +3846,7 @@
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="46">
+      <c r="B37" s="44">
         <v>1.4</v>
       </c>
       <c r="C37">
@@ -3778,7 +3859,7 @@
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="46">
+      <c r="B38" s="44">
         <v>1.45</v>
       </c>
       <c r="C38">
@@ -3791,7 +3872,7 @@
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="46">
+      <c r="B39" s="44">
         <v>1.5</v>
       </c>
       <c r="C39">
@@ -3804,7 +3885,7 @@
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="46">
+      <c r="B40" s="44">
         <v>1.55</v>
       </c>
       <c r="C40">
@@ -3817,7 +3898,7 @@
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="46">
+      <c r="B41" s="44">
         <v>1.6</v>
       </c>
       <c r="C41">
@@ -3830,7 +3911,7 @@
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="46">
+      <c r="B42" s="44">
         <v>1.65</v>
       </c>
       <c r="C42">
@@ -3843,7 +3924,7 @@
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="46">
+      <c r="B43" s="44">
         <v>1.7</v>
       </c>
       <c r="C43">
@@ -3856,7 +3937,7 @@
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="46">
+      <c r="B44" s="44">
         <v>1.75</v>
       </c>
       <c r="C44">
@@ -3869,7 +3950,7 @@
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="46">
+      <c r="B45" s="44">
         <v>1.8</v>
       </c>
       <c r="C45">
@@ -3882,7 +3963,7 @@
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="46">
+      <c r="B46" s="44">
         <v>1.85</v>
       </c>
       <c r="C46">
@@ -3895,7 +3976,7 @@
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="46">
+      <c r="B47" s="44">
         <v>1.9</v>
       </c>
       <c r="C47">
@@ -3908,7 +3989,7 @@
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="46">
+      <c r="B48" s="44">
         <v>1.95</v>
       </c>
       <c r="C48">
@@ -3921,7 +4002,7 @@
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="46">
+      <c r="B49" s="44">
         <v>2</v>
       </c>
       <c r="C49">

--- a/data/input/guideForParameterInput.xlsx
+++ b/data/input/guideForParameterInput.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="20480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23180" windowHeight="20480"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="2" r:id="rId1"/>
@@ -1732,11 +1732,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127434520"/>
-        <c:axId val="-2127437704"/>
+        <c:axId val="2143270680"/>
+        <c:axId val="2142673976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127434520"/>
+        <c:axId val="2143270680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -1795,12 +1795,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127437704"/>
+        <c:crossAx val="2142673976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127437704"/>
+        <c:axId val="2142673976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,7 +1858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127434520"/>
+        <c:crossAx val="2143270680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2200,7 +2200,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3397,6 +3397,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15">
+      <formula1>"0, 1, 2, 3, 4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16 E17 E21">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E49">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
